--- a/console/Networking/diskChExcel/diskSnapshotMixins/components/snapshotTable.xlsx
+++ b/console/Networking/diskChExcel/diskSnapshotMixins/components/snapshotTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinyonghua\Desktop\translation_review\diskChExcel\diskSnapshotMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -428,9 +428,6 @@
     </r>
   </si>
   <si>
-    <t>'The quota of resources of the chosen region is full, please switch the region or open ticket and increase quota.'</t>
-  </si>
-  <si>
     <t>snapshotTable_i18nKey_14</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
     </r>
   </si>
   <si>
-    <t>Shared</t>
-  </si>
-  <si>
     <t>snapshotTable_i18nKey_22</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     </r>
   </si>
   <si>
-    <t>'Only the normal/wrong snapshot cannot be deleted'</t>
-  </si>
-  <si>
     <t>snapshotTable_i18nKey_25</t>
   </si>
   <si>
@@ -876,9 +867,6 @@
       </rPr>
       <t>'</t>
     </r>
-  </si>
-  <si>
-    <t>'Notification'</t>
   </si>
   <si>
     <t>Modify</t>
@@ -889,11 +877,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disenable</t>
+    <t>The quota of resources of the chosen region is full, please switch the region or open ticket for increasing quota.'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This snapshot has created a private image. Delete the associated private image first before deleting the snapshot</t>
+    <t>Share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only the normal/error snapshot can be deleted'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This snapshot has built a private image. Delete the associated private image first before deleting the snapshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,6 +932,12 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -949,9 +959,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,18 +1311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.09765625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.125" style="1"/>
+    <col min="1" max="2" width="29.09765625" style="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="29.125" style="1"/>
+    <col min="4" max="16384" width="29.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1325,10 +1341,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1383,7 +1399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1438,218 +1454,219 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>87</v>
+      <c r="C31" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B31" numberStoredAsText="1"/>
   </ignoredErrors>
